--- a/biology/Botanique/Desmodium_adscendens/Desmodium_adscendens.xlsx
+++ b/biology/Botanique/Desmodium_adscendens/Desmodium_adscendens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desmodium Adscendens
 Le Desmodium adscendens est une plante herbacée bisannuelle de la famille des Fabacées.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles trifoliées alternes. Folioles obovales longues de 15 à 50 mm, larges de 10 à 30 mm. Fleurs de couleur violet clair sur un racème axillaire de 10 à 15 cm. Fruit : gousse verte articulée, longue de 10 à 25 mm, large de 3 mm.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle abonde dans la zone équatoriale humide où elle pousse librement le long des troncs des palmiers à huile ou des cacaoyers, ou dans les jardins potagers. Elle préfère les terrains cultivés ou qui ont été cultivés.
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique (côte ouest), Inde, Amérique du Sud.
 </t>
@@ -606,7 +624,9 @@
           <t>Constituants principaux des parties aériennes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante contient des saponosides triterpénoïdes : soyasaponines I et III, déhydrosoyasaponine I ; des flavonoïdes : isoflavone, composé flavonique, dérivés de flavonol et de flavone ; des anthocyanes : pélargonidine - 3 - 0 - r h a m no s ide, cyanidine-3-0-sophoroside ; et des Alcaloïdes sous forme de traces.[réf. nécessaire]
 </t>
@@ -637,12 +657,14 @@
           <t>Usages en médecine traditionnelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est prescrite en médecine traditionnelle, notamment en Afrique. Ce sont les parties aériennes de la plante qui sont utilisées. 
-Au Cameroun et en Côte d’Ivoire, elle sert à traiter la jaunisse (phase de début des hépatites virales A ou B)[1][source insuffisante]. Elle est donnée pour lutter contre les allergies,  en prévention de l’asthme[1]. Les tiges et feuilles sont utilisées par le Center for Scientific Research into Plant Medecine au Ghana pour traiter l'asthme.
-D'autres utilisations concernent les infections ORL, les maladies vénériennes[1], les ulcères d’estomac[1], l'épilepsie et vertiges[1],[2], la constipation[1]. Les praticiens traditionnels amérindiens du Venezuela s'en servent contre l’épilepsie.
-La flore illustrée du Sénégal indique que les feuilles de Desmodium adscendens sont utilisées en décoction dans le traitement des ulcères d'estomac, la constipation, etc.[3]
+Au Cameroun et en Côte d’Ivoire, elle sert à traiter la jaunisse (phase de début des hépatites virales A ou B)[source insuffisante]. Elle est donnée pour lutter contre les allergies,  en prévention de l’asthme. Les tiges et feuilles sont utilisées par le Center for Scientific Research into Plant Medecine au Ghana pour traiter l'asthme.
+D'autres utilisations concernent les infections ORL, les maladies vénériennes, les ulcères d’estomac, l'épilepsie et vertiges la constipation. Les praticiens traditionnels amérindiens du Venezuela s'en servent contre l’épilepsie.
+La flore illustrée du Sénégal indique que les feuilles de Desmodium adscendens sont utilisées en décoction dans le traitement des ulcères d'estomac, la constipation, etc.
 Les études pharmacologiques démontrent une action positive sur les transaminases, d'où son effet de protection du foie[réf. nécessaire].
 </t>
         </is>
